--- a/biology/Médecine/Hôpital_central_d'Ostrobotnie_centrale/Hôpital_central_d'Ostrobotnie_centrale.xlsx
+++ b/biology/Médecine/Hôpital_central_d'Ostrobotnie_centrale/Hôpital_central_d'Ostrobotnie_centrale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_central_d%27Ostrobotnie_centrale</t>
+          <t>Hôpital_central_d'Ostrobotnie_centrale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital central d'Ostrobotnie centrale (finnois : Keski-Pohjanmaan keskussairaala), est un hôpital du district hospitalier d'Ostrobotnie centrale situé à Kokkola en Finlande.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_central_d%27Ostrobotnie_centrale</t>
+          <t>Hôpital_central_d'Ostrobotnie_centrale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1962, un concours d'architectes est organisé pour la conception  de l'hôpital central d'Ostrobotnie. 
 Il est remporte par les architectes Erkki Helamaa et Veijo Martikainen.
-La construction de l'hôpital s'est achevée en 1969[3].  
-Depuis les années 1980, l'hôpital a été agrandi ou rénové chaque décennie[4],[5],[6].
+La construction de l'hôpital s'est achevée en 1969.  
+Depuis les années 1980, l'hôpital a été agrandi ou rénové chaque décennie.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_central_d%27Ostrobotnie_centrale</t>
+          <t>Hôpital_central_d'Ostrobotnie_centrale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital dessert une zone légèrement plus grande que la région d'Ostrobotnie centrale, soit une population d'environ 200 000 habitants[7],[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital dessert une zone légèrement plus grande que la région d'Ostrobotnie centrale, soit une population d'environ 200 000 habitants.
 </t>
         </is>
       </c>
